--- a/medicine/Enfance/Maison_d'assistance_maternelle/Maison_d'assistance_maternelle.xlsx
+++ b/medicine/Enfance/Maison_d'assistance_maternelle/Maison_d'assistance_maternelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maison_d%27assistance_maternelle</t>
+          <t>Maison_d'assistance_maternelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, une Maison d'Assistante Maternelle (MAM) est un mode d'accueil s’insérant dans le cadre d'une politique de diversification des modes d'accueil de la petite enfance, prévu par la loi 2010-625 du 9/6/2010[1] Il permet à quatre ou 6 assistantes maternelles simultanément présentes, de travailler ensemble dans un local qui n'est pas leur domicile. L'assistante maternelle reste la salariée des parents qui continuent à bénéficier de la PAJE et du crédit d’impôt. Un guide ministériel a été écrit en 2016. Aujourd'hui les maisons d'assistantes maternelles sont en développement réguliers[2] ils peuvent être créés en association et adhérées à l'ufnafaam ou à d'autres associations nationales.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, une Maison d'Assistante Maternelle (MAM) est un mode d'accueil s’insérant dans le cadre d'une politique de diversification des modes d'accueil de la petite enfance, prévu par la loi 2010-625 du 9/6/2010 Il permet à quatre ou 6 assistantes maternelles simultanément présentes, de travailler ensemble dans un local qui n'est pas leur domicile. L'assistante maternelle reste la salariée des parents qui continuent à bénéficier de la PAJE et du crédit d’impôt. Un guide ministériel a été écrit en 2016. Aujourd'hui les maisons d'assistantes maternelles sont en développement réguliers ils peuvent être créés en association et adhérées à l'ufnafaam ou à d'autres associations nationales.
 </t>
         </is>
       </c>
